--- a/incidentReport_API_Documentation.xlsx
+++ b/incidentReport_API_Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Apache\maven-workplace\Final_SB_Coding_Assignments\spring-boot-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tram/Desktop/Desktop - Tram's MacBook Pro/Promineo Tech/Spring Boot/Week 3/EndPoints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91718B9-11B5-4BC4-A793-0AC9B6F401CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B5C7B6-908C-C746-829D-D13AC49E87B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{9D04240F-0346-4EC6-A7AD-1E2D457CF2BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9D04240F-0346-4EC6-A7AD-1E2D457CF2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="incdentReportAPI_Documentation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>HTTP VERB</t>
   </si>
@@ -48,37 +48,55 @@
     <t>GET</t>
   </si>
   <si>
-    <t>api/v1/stores</t>
-  </si>
-  <si>
-    <t>Return all stores</t>
-  </si>
-  <si>
-    <t>api/v1stores/{id}</t>
-  </si>
-  <si>
-    <t>Return a specific store</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>api/v1/stores/{id}</t>
-  </si>
-  <si>
-    <t>Update a specific store</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>Delete a specific store</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Create a new store</t>
+    <t>Return incident report</t>
+  </si>
+  <si>
+    <t>api/incidents</t>
+  </si>
+  <si>
+    <t>api/facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return incidents by facility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return employees  </t>
+  </si>
+  <si>
+    <t>api/incidentCategory/{id}</t>
+  </si>
+  <si>
+    <t>Update specific incident category</t>
+  </si>
+  <si>
+    <t>Update specific incidents</t>
+  </si>
+  <si>
+    <t>api/incidents/{id}</t>
+  </si>
+  <si>
+    <t>Delete a specific incidents</t>
+  </si>
+  <si>
+    <t>Create a new employee</t>
+  </si>
+  <si>
+    <t>Create an incident report</t>
+  </si>
+  <si>
+    <t>Create incident category for certain employee</t>
   </si>
 </sst>
 </file>
@@ -110,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,17 +151,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,21 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A5ED41-3633-465F-B3B1-6C9146D2D27E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,59 +517,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
